--- a/files for test/test.xlsx
+++ b/files for test/test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CUBER\Desktop\JG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Academy\PycharmProjects\JEOPARDY_GAMEMAKER\files for test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Вопросы" sheetId="1" r:id="rId1"/>
@@ -25,187 +25,214 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>THEME</t>
   </si>
   <si>
-    <t>Страны и народы</t>
-  </si>
-  <si>
-    <t>В средневековой Японии все самураи, от сегуна (военного правителя) до простых солдат, получали продовольственные пайки, размер которых зависел от положения самурая. Какой продукт составлял эти пайки?</t>
-  </si>
-  <si>
-    <t>Математика 2</t>
-  </si>
-  <si>
-    <t>Математика 3</t>
-  </si>
-  <si>
-    <t>Математика 4</t>
-  </si>
-  <si>
-    <t>Математика 5</t>
-  </si>
-  <si>
-    <t>литра</t>
-  </si>
-  <si>
-    <t>литература 100</t>
-  </si>
-  <si>
-    <t>Литература 200</t>
-  </si>
-  <si>
-    <t>Литература 300</t>
-  </si>
-  <si>
-    <t>Литература 400</t>
-  </si>
-  <si>
-    <t>Литература 500</t>
-  </si>
-  <si>
-    <t>биология</t>
-  </si>
-  <si>
-    <t>биология 1</t>
-  </si>
-  <si>
-    <t>Биология 2</t>
-  </si>
-  <si>
-    <t>Биология 3</t>
-  </si>
-  <si>
-    <t>Биология 4</t>
-  </si>
-  <si>
-    <t>Биология 5</t>
-  </si>
-  <si>
-    <t>Русский язык</t>
-  </si>
-  <si>
-    <t>Сколько букв в русском алфавите?</t>
-  </si>
-  <si>
-    <t>Вставьте пропущенную букву: «Мы с удовольствием приняли его в нашу к...мпанию».</t>
-  </si>
-  <si>
-    <t>Какую форму множественного числа имеет слово «пальто»?</t>
-  </si>
-  <si>
-    <t>Как правильно написать про половину лимона?
-а) Поллимона
-б) Пол-лимона
-в) Пол лимона</t>
-  </si>
-  <si>
-    <t>Как правильно писать фразеологизм, означающий обманутые ожидания?
-а) Несолоно хлебавши
-б) Несоло нахлебавший
-в) Не солоно хлебавши</t>
-  </si>
-  <si>
-    <t>География</t>
-  </si>
-  <si>
-    <t>география 1</t>
-  </si>
-  <si>
-    <t>География 2</t>
-  </si>
-  <si>
-    <t>География 3</t>
-  </si>
-  <si>
-    <t>География 4</t>
-  </si>
-  <si>
-    <t>География 5</t>
-  </si>
-  <si>
-    <t>рэп</t>
-  </si>
-  <si>
-    <t>рэп 1</t>
-  </si>
-  <si>
-    <t>видео.mp4</t>
-  </si>
-  <si>
-    <t>картинка.jpg</t>
-  </si>
-  <si>
-    <t>картинка1.gif</t>
-  </si>
-  <si>
-    <t>Рэп 5</t>
-  </si>
-  <si>
-    <t>математика 1</t>
-  </si>
-  <si>
-    <t>математика 2</t>
-  </si>
-  <si>
-    <t>математика 3</t>
-  </si>
-  <si>
-    <t>математика 4</t>
-  </si>
-  <si>
-    <t>математика 5</t>
-  </si>
-  <si>
-    <t>литература 1</t>
-  </si>
-  <si>
-    <t>Литература 2</t>
-  </si>
-  <si>
-    <t>Литература 3</t>
-  </si>
-  <si>
-    <t>Литература 4</t>
-  </si>
-  <si>
-    <t>Литература 5</t>
-  </si>
-  <si>
-    <t>Вставьте пропущенную букву: «Мы с удовольствием приняли его в нашу кОмпанию».</t>
-  </si>
-  <si>
-    <t>Пальто</t>
-  </si>
-  <si>
-    <t>б) Пол-лимона</t>
-  </si>
-  <si>
-    <t>а) Несолоно хлебавши</t>
-  </si>
-  <si>
-    <t>география</t>
-  </si>
-  <si>
-    <t>Рэп 2</t>
-  </si>
-  <si>
-    <t>Рэп 3</t>
-  </si>
-  <si>
-    <t>Рэп 4</t>
-  </si>
-  <si>
-    <t>текст.txt</t>
+    <t>Космос</t>
+  </si>
+  <si>
+    <t>Какая звезда даёт нам тепло?</t>
+  </si>
+  <si>
+    <t>Солнце</t>
+  </si>
+  <si>
+    <t>Когда наступает ночь средь бела дня?</t>
+  </si>
+  <si>
+    <t>В солнечное затмение</t>
+  </si>
+  <si>
+    <t>Почему на Солнце есть пятна?</t>
+  </si>
+  <si>
+    <t>Некоторые части поверхности солнца прохладнее остальных, они выглядят темнее</t>
+  </si>
+  <si>
+    <t>Какая из планет самая горячая?</t>
+  </si>
+  <si>
+    <t>Искусство </t>
+  </si>
+  <si>
+    <t>Какими кондитерскими издельями славится город Тула?</t>
+  </si>
+  <si>
+    <t>Тульскими пряниками</t>
+  </si>
+  <si>
+    <t>Французский инженер возвёл это сооружение высотой почти в треть километра для всемирной выставки, проходившей в Париже в 1889 году.</t>
+  </si>
+  <si>
+    <t>Эйфелева башня</t>
+  </si>
+  <si>
+    <t>Назовите город, где установлен конный памятник Петру I .</t>
+  </si>
+  <si>
+    <t>Санкт - Петербург</t>
+  </si>
+  <si>
+    <t>Валентин Александрович Серов</t>
+  </si>
+  <si>
+    <t>Математика </t>
+  </si>
+  <si>
+    <t>Назовите часть прямой, ограниченной двумя точками.</t>
+  </si>
+  <si>
+    <t>Отрезок</t>
+  </si>
+  <si>
+    <t>На двух руках 10 пальцев. Сколько пальцев на 100 руках?</t>
+  </si>
+  <si>
+    <t>500 пальцев</t>
+  </si>
+  <si>
+    <t>2² = 4 3² = 9 А чему равен угол в квадрате?</t>
+  </si>
+  <si>
+    <t>Угол в квадрате равен 90˚</t>
+  </si>
+  <si>
+    <t>Кот в мешке</t>
+  </si>
+  <si>
+    <t>Что такое триколор?</t>
+  </si>
+  <si>
+    <t>Триколор – трёхцветный флаг</t>
+  </si>
+  <si>
+    <t>Как называется созвездие на небосклоне, имеющее форму инструмента для питья?</t>
+  </si>
+  <si>
+    <t>Большая медведица</t>
+  </si>
+  <si>
+    <t>Между какими двумя одинаковыми буквами можно поставить маленькую лошадь и получить название страны?</t>
+  </si>
+  <si>
+    <t>Я пони Я</t>
+  </si>
+  <si>
+    <t>Смекалистым</t>
+  </si>
+  <si>
+    <t>Какими нотами можно измерить расстояние?</t>
+  </si>
+  <si>
+    <t>Ми-ля-ми</t>
+  </si>
+  <si>
+    <t>Назовите «врага» вычислительных навыков школьника</t>
+  </si>
+  <si>
+    <t>Калькулятор</t>
+  </si>
+  <si>
+    <t>Что это за трава, которую и слепые узнают?</t>
+  </si>
+  <si>
+    <t>Крапива</t>
+  </si>
+  <si>
+    <t>В Древней Руси деньгами служили серебряные бруски. Их называли гривнами. Если вещь стоила меньше, чем весь брусок, то от него отрубали часть. Как называлась отрубленная часть серебряного бруска?</t>
+  </si>
+  <si>
+    <t>Рубль</t>
+  </si>
+  <si>
+    <t>Две дочери, две матери, да бабушка с внучкой. Сколько всех?</t>
+  </si>
+  <si>
+    <t>Трое</t>
+  </si>
+  <si>
+    <t>Самая горячая планета солнечной системы - Венера</t>
+  </si>
+  <si>
+    <t>Какой угол образуют стрелки часов, показывающие три часа?</t>
+  </si>
+  <si>
+    <t>Прямой</t>
+  </si>
+  <si>
+    <t>Сколько вершин у параллелепипеда?</t>
+  </si>
+  <si>
+    <t>Восемь</t>
+  </si>
+  <si>
+    <t>звездная-ночь.jpg</t>
+  </si>
+  <si>
+    <t>Звёздная ночь, Ван Гог</t>
+  </si>
+  <si>
+    <t>В честь чего празднуется день космонавтики</t>
+  </si>
+  <si>
+    <t>12 апреля дата, установленная в ознаменование первого полёта человека в космос.</t>
+  </si>
+  <si>
+    <t>Друг зверей и друг детей добрый доктор…</t>
+  </si>
+  <si>
+    <t>Айболит</t>
+  </si>
+  <si>
+    <t>Как приезжему отыскать площадь Горького?</t>
+  </si>
+  <si>
+    <t>Надо длину Горького умножить на ширину Горького.</t>
+  </si>
+  <si>
+    <t>Фильмы</t>
+  </si>
+  <si>
+    <t>старики-разбойники.jpg</t>
+  </si>
+  <si>
+    <t>Старики-разбойники</t>
+  </si>
+  <si>
+    <t>Я – легенда</t>
+  </si>
+  <si>
+    <t>Я–легенда.jpg</t>
+  </si>
+  <si>
+    <t>Побег из Шоушенка</t>
+  </si>
+  <si>
+    <t>Титаник.jpg</t>
+  </si>
+  <si>
+    <t>Титаник</t>
+  </si>
+  <si>
+    <t>Острые-Козырьки.jpg</t>
+  </si>
+  <si>
+    <t>Острые козырьки</t>
+  </si>
+  <si>
+    <t>девочка_с_персиками.jpg</t>
+  </si>
+  <si>
+    <t>Побег-из-Шоушенка.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -223,6 +250,76 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -245,13 +342,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -535,17 +648,17 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -569,128 +682,128 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
+      <c r="A2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="90">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.4">
+      <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
+      <c r="E6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.399999999999999">
+      <c r="A7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -699,17 +812,17 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -733,123 +846,123 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="F5" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:6" ht="19.2">
+      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="D6" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F6" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>36</v>
+    </row>
+    <row r="7" spans="1:6" ht="17.399999999999999">
+      <c r="A7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
